--- a/毕业设计/数据.xlsx
+++ b/毕业设计/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26057" windowHeight="16478"/>
+    <workbookView windowWidth="15614" windowHeight="16315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>氮含量占比</t>
   </si>
@@ -70,6 +70,9 @@
     <t>木糖反应共热液200℃-2</t>
   </si>
   <si>
+    <t>木糖反应共热液200℃平均</t>
+  </si>
+  <si>
     <t>木糖反应共热液220℃-1</t>
   </si>
   <si>
@@ -101,6 +104,51 @@
   </si>
   <si>
     <t>木糖反应共热液280℃-2</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>180℃-2h</t>
+  </si>
+  <si>
+    <t>200℃-2h</t>
+  </si>
+  <si>
+    <t>220℃-2h</t>
+  </si>
+  <si>
+    <t>240℃-2h</t>
+  </si>
+  <si>
+    <t>260℃-2h</t>
+  </si>
+  <si>
+    <t>280℃-2h</t>
+  </si>
+  <si>
+    <t>产物称重(g)</t>
+  </si>
+  <si>
+    <t>氮质量分数(%)</t>
+  </si>
+  <si>
+    <t>氮质量(mg)</t>
+  </si>
+  <si>
+    <r>
+      <t>固氮率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -108,12 +156,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,24 +170,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,10 +206,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,6 +225,30 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,60 +262,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +295,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,19 +343,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,67 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,101 +517,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,15 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -518,16 +586,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +620,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,157 +648,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1961,10 +2050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4"/>
@@ -1974,6 +2063,7 @@
     <col min="9" max="9" width="9.488" customWidth="1"/>
     <col min="10" max="10" width="9.744" customWidth="1"/>
     <col min="11" max="12" width="9.576" customWidth="1"/>
+    <col min="14" max="14" width="12.712"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:12">
@@ -1994,16 +2084,16 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.05849</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.4676</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>0.05943</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.00451</v>
       </c>
     </row>
@@ -2011,16 +2101,16 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.05286</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.4296</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0.05722</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>0.00323</v>
       </c>
     </row>
@@ -2028,19 +2118,19 @@
       <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f>(I2+I3)/2</f>
         <v>0.055675</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <f>(J2+J3)/2</f>
         <v>0.4486</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f>(K2+K3)/2</f>
         <v>0.058325</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <f>(L2+L3)/2</f>
         <v>0.00387</v>
       </c>
@@ -2049,16 +2139,16 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0.02183</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>0.4954</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.06562</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>0.00302</v>
       </c>
     </row>
@@ -2066,16 +2156,16 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.02067</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.4821</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>0.06165</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>0.0028</v>
       </c>
     </row>
@@ -2083,19 +2173,19 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <f>AVERAGE(I5:I6)</f>
         <v>0.02125</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <f>AVERAGE(J5:J6)</f>
         <v>0.48875</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f>AVERAGE(K5:K6)</f>
         <v>0.063635</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <f>AVERAGE(L5:L6)</f>
         <v>0.00291</v>
       </c>
@@ -2104,16 +2194,16 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.05971</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.6538</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>0.03352</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>0.00043</v>
       </c>
     </row>
@@ -2121,16 +2211,16 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>0.05799</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>0.643</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>0.04672</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>0.00102</v>
       </c>
     </row>
@@ -2147,19 +2237,19 @@
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <f>AVERAGE(I8:I9)</f>
         <v>0.05885</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <f>AVERAGE(J8:J9)</f>
         <v>0.6484</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f>AVERAGE(K8:K9)</f>
         <v>0.04012</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <f>AVERAGE(L8:L9)</f>
         <v>0.000725</v>
       </c>
@@ -2178,16 +2268,16 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>0.05869</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0.662</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>0.05131</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>0.00174</v>
       </c>
     </row>
@@ -2205,16 +2295,16 @@
       <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>0.05834</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0.6919</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>0.05059</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>0.00144</v>
       </c>
     </row>
@@ -2230,21 +2320,21 @@
         <v>0.329566666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2">
         <f>AVERAGE(I11:I12)</f>
         <v>0.058515</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <f>AVERAGE(J11:J12)</f>
         <v>0.67695</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f>AVERAGE(K11:K12)</f>
         <v>0.05095</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <f>AVERAGE(L11:L12)</f>
         <v>0.00159</v>
       </c>
@@ -2261,18 +2351,18 @@
         <v>0.32</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2">
         <v>0.0609</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>0.711</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>0.04903</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>0.00158</v>
       </c>
     </row>
@@ -2288,18 +2378,18 @@
         <v>0.289333333333333</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="1">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
         <v>0.06006</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>0.6967</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>0.05047</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>0.00141</v>
       </c>
     </row>
@@ -2315,174 +2405,357 @@
         <v>0.285033333333333</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2">
         <f>AVERAGE(I14:I15)</f>
         <v>0.06048</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <f>AVERAGE(J14:J15)</f>
         <v>0.70385</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f>AVERAGE(K14:K15)</f>
         <v>0.04975</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <f>AVERAGE(L14:L15)</f>
         <v>0.001495</v>
       </c>
     </row>
     <row r="17" spans="8:12">
       <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2">
         <v>0.05598</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>0.5277</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <v>0.04876</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <v>0.0011</v>
       </c>
     </row>
     <row r="18" spans="8:12">
       <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="1">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2">
         <v>0.05781</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>0.7042</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>0.04895</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>0.0007</v>
       </c>
     </row>
     <row r="19" spans="8:12">
       <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="1">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2">
         <f>AVERAGE(I17:I18)</f>
         <v>0.056895</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <f>AVERAGE(J17:J18)</f>
         <v>0.61595</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f>AVERAGE(K17:K18)</f>
         <v>0.048855</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <f>AVERAGE(L17:L18)</f>
         <v>0.0009</v>
       </c>
     </row>
     <row r="20" spans="8:12">
       <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="1">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2">
         <v>0.06434</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>0.6872</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <v>0.0527</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>0.0011</v>
       </c>
     </row>
     <row r="21" spans="8:12">
       <c r="H21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="1">
+        <v>26</v>
+      </c>
+      <c r="I21" s="2">
         <v>0.06336</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>0.7163</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>0.05158</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>0.00084</v>
       </c>
     </row>
     <row r="22" spans="8:12">
       <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="1">
+        <v>27</v>
+      </c>
+      <c r="I22" s="2">
         <f>AVERAGE(I20:I21)</f>
         <v>0.06385</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <f>AVERAGE(J20:J21)</f>
         <v>0.70175</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f>AVERAGE(K20:K21)</f>
         <v>0.05214</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <f>AVERAGE(L20:L21)</f>
         <v>0.00097</v>
       </c>
     </row>
     <row r="23" spans="8:12">
       <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="1">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2">
         <v>0.06353</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>0.7411</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <v>0.04761</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>0.00036</v>
       </c>
     </row>
     <row r="24" spans="8:12">
       <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="1">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2">
         <v>0.06208</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>0.4127</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <v>0.0498</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>0.0013</v>
       </c>
     </row>
     <row r="25" spans="9:12">
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="34" spans="8:14">
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="8:14">
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.7823</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.9248</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.9887</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.868</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.8551</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="8:14">
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="J36" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K36" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="L36" s="4">
+        <v>5.69</v>
+      </c>
+      <c r="M36" s="4">
+        <v>6.39</v>
+      </c>
+      <c r="N36" s="4">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14">
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37">
+        <f>10*I35*I36</f>
+        <v>46.07747</v>
+      </c>
+      <c r="J37">
+        <f>10*J35*J36</f>
+        <v>54.1008</v>
+      </c>
+      <c r="K37">
+        <f>10*K35*K36</f>
+        <v>59.81635</v>
+      </c>
+      <c r="L37">
+        <f>10*L35*L36</f>
+        <v>54.624</v>
+      </c>
+      <c r="M37">
+        <f>10*M35*M36</f>
+        <v>55.4652</v>
+      </c>
+      <c r="N37">
+        <f>10*N35*N36</f>
+        <v>53.70028</v>
+      </c>
+    </row>
+    <row r="38" ht="15.65" spans="8:14">
+      <c r="H38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38">
+        <f>I37*100/113.6</f>
+        <v>40.5611531690141</v>
+      </c>
+      <c r="J38">
+        <f>J37*100/113.6</f>
+        <v>47.6239436619718</v>
+      </c>
+      <c r="K38">
+        <f>K37*100/113.6</f>
+        <v>52.6552376760563</v>
+      </c>
+      <c r="L38">
+        <f>L37*100/113.6</f>
+        <v>48.0845070422535</v>
+      </c>
+      <c r="M38">
+        <f>M37*100/113.6</f>
+        <v>48.825</v>
+      </c>
+      <c r="N38">
+        <f>N37*100/113.6</f>
+        <v>47.2713732394366</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="9:14">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" ht="15" spans="8:9">
+      <c r="H46">
+        <v>180</v>
+      </c>
+      <c r="I46" s="5">
+        <v>40.56</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="8:9">
+      <c r="H47">
+        <v>200</v>
+      </c>
+      <c r="I47" s="5">
+        <v>47.62</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="8:9">
+      <c r="H48">
+        <v>220</v>
+      </c>
+      <c r="I48" s="5">
+        <v>52.66</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="8:9">
+      <c r="H49">
+        <v>240</v>
+      </c>
+      <c r="I49" s="5">
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="8:9">
+      <c r="H50">
+        <v>260</v>
+      </c>
+      <c r="I50" s="5">
+        <v>48.83</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="8:9">
+      <c r="H51">
+        <v>280</v>
+      </c>
+      <c r="I51" s="5">
+        <v>47.27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/毕业设计/数据.xlsx
+++ b/毕业设计/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15614" windowHeight="16315"/>
+    <workbookView windowWidth="14988" windowHeight="16315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>氮含量占比</t>
   </si>
@@ -28,6 +28,9 @@
     <t>硫含量占比</t>
   </si>
   <si>
+    <t>氧含量占比</t>
+  </si>
+  <si>
     <t>纤维板原料1</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>木糖反应共热液280℃-2</t>
   </si>
   <si>
+    <t>木糖反应共热液280℃平均</t>
+  </si>
+  <si>
     <t>条件</t>
   </si>
   <si>
@@ -137,6 +143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>固氮率</t>
     </r>
     <r>
@@ -156,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -198,23 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,25 +226,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,15 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,49 +302,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,13 +355,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,115 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +597,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -608,182 +655,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2052,8 +2064,8 @@
   <sheetPr/>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4"/>
@@ -2063,10 +2075,11 @@
     <col min="9" max="9" width="9.488" customWidth="1"/>
     <col min="10" max="10" width="9.744" customWidth="1"/>
     <col min="11" max="12" width="9.576" customWidth="1"/>
+    <col min="13" max="13" width="9.512"/>
     <col min="14" max="14" width="12.712"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:12">
+    <row r="1" spans="9:13">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -2079,10 +2092,13 @@
       <c r="L1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="8:12">
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="8:13">
       <c r="H2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
         <v>0.05849</v>
@@ -2096,10 +2112,14 @@
       <c r="L2" s="2">
         <v>0.00451</v>
       </c>
-    </row>
-    <row r="3" spans="8:12">
+      <c r="M2" s="2">
+        <f>1-I2-J2-K2-L2</f>
+        <v>0.40997</v>
+      </c>
+    </row>
+    <row r="3" spans="8:13">
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2">
         <v>0.05286</v>
@@ -2113,10 +2133,14 @@
       <c r="L3" s="2">
         <v>0.00323</v>
       </c>
-    </row>
-    <row r="4" spans="8:12">
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M24" si="0">1-I3-J3-K3-L3</f>
+        <v>0.45709</v>
+      </c>
+    </row>
+    <row r="4" spans="8:13">
       <c r="H4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
         <f>(I2+I3)/2</f>
@@ -2134,10 +2158,14 @@
         <f>(L2+L3)/2</f>
         <v>0.00387</v>
       </c>
-    </row>
-    <row r="5" spans="8:12">
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43353</v>
+      </c>
+    </row>
+    <row r="5" spans="8:13">
       <c r="H5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2">
         <v>0.02183</v>
@@ -2151,10 +2179,14 @@
       <c r="L5" s="2">
         <v>0.00302</v>
       </c>
-    </row>
-    <row r="6" spans="8:12">
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41413</v>
+      </c>
+    </row>
+    <row r="6" spans="8:13">
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
         <v>0.02067</v>
@@ -2168,10 +2200,14 @@
       <c r="L6" s="2">
         <v>0.0028</v>
       </c>
-    </row>
-    <row r="7" spans="8:12">
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43278</v>
+      </c>
+    </row>
+    <row r="7" spans="8:13">
       <c r="H7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2">
         <f>AVERAGE(I5:I6)</f>
@@ -2189,10 +2225,14 @@
         <f>AVERAGE(L5:L6)</f>
         <v>0.00291</v>
       </c>
-    </row>
-    <row r="8" spans="8:12">
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.423455</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13">
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2">
         <v>0.05971</v>
@@ -2206,10 +2246,14 @@
       <c r="L8" s="2">
         <v>0.00043</v>
       </c>
-    </row>
-    <row r="9" spans="8:12">
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25254</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13">
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2">
         <v>0.05799</v>
@@ -2223,19 +2267,23 @@
       <c r="L9" s="2">
         <v>0.00102</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2">
         <f>AVERAGE(I8:I9)</f>
@@ -2253,8 +2301,12 @@
         <f>AVERAGE(L8:L9)</f>
         <v>0.000725</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.251905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>180</v>
       </c>
@@ -2262,11 +2314,11 @@
         <v>0.7823</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C16" si="0">B11/3</f>
+        <f t="shared" ref="C11:C16" si="1">B11/3</f>
         <v>0.260766666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2">
         <v>0.05869</v>
@@ -2280,8 +2332,12 @@
       <c r="L11" s="2">
         <v>0.00174</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>200</v>
       </c>
@@ -2289,11 +2345,11 @@
         <v>0.9248</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.308266666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2">
         <v>0.05834</v>
@@ -2307,8 +2363,12 @@
       <c r="L12" s="2">
         <v>0.00144</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>220</v>
       </c>
@@ -2316,11 +2376,11 @@
         <v>0.9887</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.329566666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2">
         <f>AVERAGE(I11:I12)</f>
@@ -2338,8 +2398,12 @@
         <f>AVERAGE(L11:L12)</f>
         <v>0.00159</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.211995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>240</v>
       </c>
@@ -2347,11 +2411,11 @@
         <v>0.96</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="2">
         <v>0.0609</v>
@@ -2365,8 +2429,12 @@
       <c r="L14" s="2">
         <v>0.00158</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>260</v>
       </c>
@@ -2374,11 +2442,11 @@
         <v>0.868</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.289333333333333</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="2">
         <v>0.06006</v>
@@ -2392,8 +2460,12 @@
       <c r="L15" s="2">
         <v>0.00141</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>280</v>
       </c>
@@ -2401,11 +2473,11 @@
         <v>0.8551</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.285033333333333</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="2">
         <f>AVERAGE(I14:I15)</f>
@@ -2423,10 +2495,14 @@
         <f>AVERAGE(L14:L15)</f>
         <v>0.001495</v>
       </c>
-    </row>
-    <row r="17" spans="8:12">
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.184425</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13">
       <c r="H17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2">
         <v>0.05598</v>
@@ -2440,10 +2516,14 @@
       <c r="L17" s="2">
         <v>0.0011</v>
       </c>
-    </row>
-    <row r="18" spans="8:12">
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36646</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13">
       <c r="H18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="2">
         <v>0.05781</v>
@@ -2457,10 +2537,14 @@
       <c r="L18" s="2">
         <v>0.0007</v>
       </c>
-    </row>
-    <row r="19" spans="8:12">
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18834</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13">
       <c r="H19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2">
         <f>AVERAGE(I17:I18)</f>
@@ -2478,10 +2562,14 @@
         <f>AVERAGE(L17:L18)</f>
         <v>0.0009</v>
       </c>
-    </row>
-    <row r="20" spans="8:12">
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2774</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13">
       <c r="H20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2">
         <v>0.06434</v>
@@ -2495,10 +2583,14 @@
       <c r="L20" s="2">
         <v>0.0011</v>
       </c>
-    </row>
-    <row r="21" spans="8:12">
+      <c r="M20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19466</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13">
       <c r="H21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" s="2">
         <v>0.06336</v>
@@ -2512,10 +2604,14 @@
       <c r="L21" s="2">
         <v>0.00084</v>
       </c>
-    </row>
-    <row r="22" spans="8:12">
+      <c r="M21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16792</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13">
       <c r="H22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I22" s="2">
         <f>AVERAGE(I20:I21)</f>
@@ -2533,10 +2629,14 @@
         <f>AVERAGE(L20:L21)</f>
         <v>0.00097</v>
       </c>
-    </row>
-    <row r="23" spans="8:12">
+      <c r="M22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18129</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13">
       <c r="H23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23" s="2">
         <v>0.06353</v>
@@ -2550,16 +2650,20 @@
       <c r="L23" s="2">
         <v>0.00036</v>
       </c>
-    </row>
-    <row r="24" spans="8:12">
+      <c r="M23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1474</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13">
       <c r="H24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="2">
         <v>0.06208</v>
       </c>
       <c r="J24" s="2">
-        <v>0.4127</v>
+        <v>0.7127</v>
       </c>
       <c r="K24" s="2">
         <v>0.0498</v>
@@ -2567,39 +2671,62 @@
       <c r="L24" s="2">
         <v>0.0013</v>
       </c>
-    </row>
-    <row r="25" spans="9:12">
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17412</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I23:I24)</f>
+        <v>0.062805</v>
+      </c>
+      <c r="J25" s="2">
+        <f>AVERAGE(J23:J24)</f>
+        <v>0.7269</v>
+      </c>
+      <c r="K25" s="2">
+        <f>AVERAGE(K23:K24)</f>
+        <v>0.048705</v>
+      </c>
+      <c r="L25" s="2">
+        <f>AVERAGE(L23:L24)</f>
+        <v>0.00083</v>
+      </c>
+      <c r="M25" s="2">
+        <f>AVERAGE(M23:M24)</f>
+        <v>0.16076</v>
+      </c>
     </row>
     <row r="34" spans="8:14">
       <c r="H34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="15.75" spans="8:14">
       <c r="H35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I35" s="3">
         <v>0.7823</v>
@@ -2622,7 +2749,7 @@
     </row>
     <row r="36" ht="15.75" spans="8:14">
       <c r="H36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I36" s="4">
         <v>5.89</v>
@@ -2645,59 +2772,59 @@
     </row>
     <row r="37" spans="8:14">
       <c r="H37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I37">
-        <f>10*I35*I36</f>
+        <f t="shared" ref="I37:N37" si="2">10*I35*I36</f>
         <v>46.07747</v>
       </c>
       <c r="J37">
-        <f>10*J35*J36</f>
+        <f t="shared" si="2"/>
         <v>54.1008</v>
       </c>
       <c r="K37">
-        <f>10*K35*K36</f>
+        <f t="shared" si="2"/>
         <v>59.81635</v>
       </c>
       <c r="L37">
-        <f>10*L35*L36</f>
+        <f t="shared" si="2"/>
         <v>54.624</v>
       </c>
       <c r="M37">
-        <f>10*M35*M36</f>
+        <f t="shared" si="2"/>
         <v>55.4652</v>
       </c>
       <c r="N37">
-        <f>10*N35*N36</f>
+        <f t="shared" si="2"/>
         <v>53.70028</v>
       </c>
     </row>
     <row r="38" ht="15.65" spans="8:14">
       <c r="H38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I38">
-        <f>I37*100/113.6</f>
+        <f t="shared" ref="I38:N38" si="3">I37*100/113.6</f>
         <v>40.5611531690141</v>
       </c>
       <c r="J38">
-        <f>J37*100/113.6</f>
+        <f t="shared" si="3"/>
         <v>47.6239436619718</v>
       </c>
       <c r="K38">
-        <f>K37*100/113.6</f>
+        <f t="shared" si="3"/>
         <v>52.6552376760563</v>
       </c>
       <c r="L38">
-        <f>L37*100/113.6</f>
+        <f t="shared" si="3"/>
         <v>48.0845070422535</v>
       </c>
       <c r="M38">
-        <f>M37*100/113.6</f>
+        <f t="shared" si="3"/>
         <v>48.825</v>
       </c>
       <c r="N38">
-        <f>N37*100/113.6</f>
+        <f t="shared" si="3"/>
         <v>47.2713732394366</v>
       </c>
     </row>
@@ -2709,52 +2836,70 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" ht="15" spans="8:9">
+    <row r="46" ht="15" spans="8:10">
       <c r="H46">
         <v>180</v>
       </c>
       <c r="I46" s="5">
         <v>40.56</v>
       </c>
-    </row>
-    <row r="47" ht="15" spans="8:9">
+      <c r="J46" s="4">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="8:10">
       <c r="H47">
         <v>200</v>
       </c>
       <c r="I47" s="5">
         <v>47.62</v>
       </c>
-    </row>
-    <row r="48" ht="15" spans="8:9">
+      <c r="J47" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="8:10">
       <c r="H48">
         <v>220</v>
       </c>
       <c r="I48" s="5">
         <v>52.66</v>
       </c>
-    </row>
-    <row r="49" ht="15" spans="8:9">
+      <c r="J48" s="4">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="8:10">
       <c r="H49">
         <v>240</v>
       </c>
       <c r="I49" s="5">
         <v>48.08</v>
       </c>
-    </row>
-    <row r="50" ht="15" spans="8:9">
+      <c r="J49" s="4">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="8:10">
       <c r="H50">
         <v>260</v>
       </c>
       <c r="I50" s="5">
         <v>48.83</v>
       </c>
-    </row>
-    <row r="51" ht="15" spans="8:9">
+      <c r="J50" s="4">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="8:10">
       <c r="H51">
         <v>280</v>
       </c>
       <c r="I51" s="5">
         <v>47.27</v>
+      </c>
+      <c r="J51" s="4">
+        <v>6.28</v>
       </c>
     </row>
   </sheetData>

--- a/毕业设计/数据.xlsx
+++ b/毕业设计/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14988" windowHeight="16315"/>
+    <workbookView windowWidth="31066" windowHeight="16478"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,9 +210,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +310,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,111 +345,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,85 +355,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,104 +539,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -555,6 +555,15 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -607,32 +616,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -649,153 +632,179 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +832,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2062,10 +2080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46:J51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G23" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4"/>
@@ -2902,6 +2920,74 @@
         <v>6.28</v>
       </c>
     </row>
+    <row r="53" ht="15.15"/>
+    <row r="54" ht="15" spans="8:10">
+      <c r="H54">
+        <v>180</v>
+      </c>
+      <c r="I54" s="6">
+        <v>58.1</v>
+      </c>
+      <c r="J54" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="8:10">
+      <c r="H55">
+        <v>200</v>
+      </c>
+      <c r="I55" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="J55" s="7">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="8:10">
+      <c r="H56">
+        <v>220</v>
+      </c>
+      <c r="I56" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="J56" s="7">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="8:10">
+      <c r="H57">
+        <v>240</v>
+      </c>
+      <c r="I57" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="J57" s="7">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="8:10">
+      <c r="H58">
+        <v>260</v>
+      </c>
+      <c r="I58" s="7">
+        <v>51.4</v>
+      </c>
+      <c r="J58" s="7">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="8:10">
+      <c r="H59">
+        <v>280</v>
+      </c>
+      <c r="I59" s="8">
+        <v>51.3</v>
+      </c>
+      <c r="J59" s="8">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
